--- a/Dataset/Folds/Fold_3/Excel/70.xlsx
+++ b/Dataset/Folds/Fold_3/Excel/70.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8115" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9051" uniqueCount="1254">
   <si>
     <t>Doi</t>
   </si>
@@ -3697,6 +3697,402 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,                            Jing%Wang%NULL%3,                            Wenbin%Li%NULL%1,                            Zhaoxian%Zhou%NULL%1,                            Siying%Liu%NULL%1,                            Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,                             Tania%Paredes%NULL%0,                             Tania%Paredes%NULL%0,                             David%Caceres%NULL%0,                             Camille M.%Webb%NULL%0,                             Luis M.%Valdez%NULL%0,                             Mauricio%La Rosa%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rachel M.%Burke%NULL%1,                             Claire M.%Midgley%NULL%1,                             Alissa%Dratch%NULL%1,                             Marty%Fenstersheib%NULL%1,                             Thomas%Haupt%NULL%1,                             Michelle%Holshue%NULL%1,                             Isaac%Ghinai%NULL%1,                             M. Claire%Jarashow%NULL%1,                             Jennifer%Lo%NULL%1,                             Tristan D.%McPherson%NULL%1,                             Sara%Rudman%NULL%1,                             Sarah%Scott%NULL%1,                             Aron J.%Hall%NULL%1,                             Alicia M.%Fry%NULL%1,                             Melissa A.%Rolfes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Cai%NULL%1,                             Wenjie%Sun%NULL%1,                             Jianping%Huang%NULL%1,                             Michelle%Gamber%NULL%1,                             Jing%Wu%NULL%2,                             Guiqing%He%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,                             Shuofeng%Yuan%NULL%1,                             Kin-Hang%Kok%NULL%1,                             Kelvin Kai-Wang%To%NULL%1,                             Hin%Chu%NULL%1,                             Jin%Yang%NULL%1,                             Fanfan%Xing%NULL%1,                             Jieling%Liu%NULL%1,                             Cyril Chik-Yan%Yip%NULL%2,                             Rosana Wing-Shan%Poon%NULL%2,                             Hoi-Wah%Tsoi%NULL%1,                             Simon Kam-Fai%Lo%NULL%1,                             Kwok-Hung%Chan%NULL%2,                             Vincent Kwok-Man%Poon%NULL%1,                             Wan-Mui%Chan%NULL%2,                             Jonathan Daniel%Ip%NULL%2,                             Jian-Piao%Cai%NULL%2,                             Vincent Chi-Chung%Cheng%NULL%2,                             Honglin%Chen%NULL%2,                             Christopher Kim-Ming%Hui%NULL%1,                             Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,                             Juanjuan%Guo%NULL%0,                             Chen%Wang%NULL%0,                             Fan%Luo%NULL%1,                             Xuechen%Yu%NULL%0,                             Wei%Zhang%NULL%0,                             Jiafu%Li%NULL%0,                             Dongchi%Zhao%NULL%1,                             Dan%Xu%NULL%3,                             Qing%Gong%NULL%1,                             Jing%Liao%NULL%1,                             Huixia%Yang%yanghuixia@bjmu.edu.cn%0,                             Wei%Hou%houwei@whu.edu.cn%0,                             Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%2,                             Hua%Peng%NULL%1,                             Lin%Wang%NULL%3,                             Yin%Zhao%NULL%1,                             Lingkong%Zeng%NULL%1,                             Hui%Gao%NULL%1,                             Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao-Yuan%Cheng%NULL%1,                             Shu-Wan%Jian%NULL%1,                             Ding-Ping%Liu%NULL%1,                             Ta-Chou%Ng%NULL%1,                             Wan-Ting%Huang%NULL%1,                             Hsien-Ho%Lin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vincent C. C.%Cheng%NULL%1,                             Shuk-Ching%Wong%NULL%1,                             Jonathan H. K.%Chen%NULL%1,                             Cyril C. Y.%Yip%NULL%1,                             Vivien W. M.%Chuang%NULL%1,                             Owen T. Y.%Tsang%NULL%1,                             Siddharth%Sridhar%NULL%1,                             Jasper F. W.%Chan%NULL%1,                             Pak-Leung%Ho%NULL%1,                             Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po Ying%Chia%NULL%1,                             Kristen Kelli%Coleman%NULL%2,                             Kristen Kelli%Coleman%NULL%0,                             Yian Kim%Tan%NULL%2,                             Yian Kim%Tan%NULL%0,                             Sean Wei Xiang%Ong%NULL%1,                             Marcus%Gum%NULL%2,                             Marcus%Gum%NULL%0,                             Sok Kiang%Lau%NULL%1,                             Xiao Fang%Lim%NULL%1,                             Ai Sim%Lim%NULL%1,                             Stephanie%Sutjipto%NULL%1,                             Pei Hua%Lee%NULL%1,                             Than The%Son%NULL%1,                             Barnaby Edward%Young%NULL%1,                             Donald K.%Milton%NULL%1,                             Gregory C.%Gray%NULL%2,                             Gregory C.%Gray%NULL%0,                             Stephan%Schuster%NULL%2,                             Stephan%Schuster%NULL%0,                             Timothy%Barkham%NULL%1,                             Partha Pratim%De%NULL%2,                             Partha Pratim%De%NULL%0,                             Shawn%Vasoo%NULL%1,                             Monica%Chan%NULL%1,                             Brenda Sze Peng%Ang%NULL%1,                             Boon Huan%Tan%NULL%1,                             Yee-Sin%Leo%NULL%1,                             Oon-Tek%Ng%Oon_Tek_Ng@ncid.sg%1,                             Michelle Su Yen%Wong%NULL%2,                             Michelle Su Yen%Wong%NULL%0,                             Kalisvar%Marimuthu%kalisvar_marimuthu@ncid.sg%1,                             David Chien%Lye%NULL%2,                             David Chien%Lye%NULL%0,                             Poh Lian%Lim%NULL%1,                             Cheng Chuan%Lee%NULL%1,                             Li Min%Ling%NULL%1,                             Lawrence%Lee%NULL%1,                             Tau Hong%Lee%NULL%1,                             Chen Seong%Wong%NULL%1,                             Sapna%Sadarangani%NULL%1,                             Ray Junhao%Lin%NULL%1,                             Deborah Hee Ling%Ng%NULL%1,                             Mucheli%Sadasiv%NULL%1,                             Tsin Wen%Yeo%NULL%1,                             Chiaw Yee%Choy%NULL%1,                             Glorijoy Shi En%Tan%NULL%1,                             Frederico%Dimatatac%NULL%1,                             Isais Florante%Santos%NULL%1,                             Chi Jong%Go%NULL%1,                             Yu Kit%Chan%NULL%1,                             Jun Yang%Tay%NULL%1,                             Jackie Yu-Ling%Tan%NULL%1,                             Nihar%Pandit%NULL%1,                             Benjamin Choon Heng%Ho%NULL%1,                             Shehara%Mendis%NULL%1,                             Yuan Yi Constance%Chen%NULL%1,                             Mohammad Yazid%Abdad%NULL%1,                             Daniela%Moses%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alex W H%Chin%NULL%1,                             Julie T S%Chu%NULL%1,                             Mahen R A%Perera%NULL%1,                             Kenrie P Y%Hui%NULL%1,                             Hui-Ling%Yen%NULL%1,                             Michael C W%Chan%NULL%1,                             Malik%Peiris%NULL%1,                             Leo L M%Poon%llmpoon@hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%2,                             Daniele%Lapa%NULL%2,                             Fabrizio%Carletti%NULL%2,                             Eleonora%Lalle%NULL%2,                             Licia%Bordi%NULL%2,                             Patrizia%Marsella%NULL%2,                             Emanuele%Nicastri%NULL%2,                             Nazario%Bevilacqua%NULL%2,                             Maria Letizia%Giancola%NULL%2,                             Angela%Corpolongo%NULL%2,                             Giuseppe%Ippolito%NULL%2,                             Maria Rosaria%Capobianchi%NULL%2,                             Concetta%Castilletti%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%0,                             Daniele%Lapa%NULL%0,                             Fabrizio%Carletti%NULL%0,                             Eleonora%Lalle%NULL%0,                             Licia%Bordi%NULL%0,                             Patrizia%Marsella%NULL%0,                             Emanuele%Nicastri%NULL%0,                             Nazario%Bevilacqua%NULL%0,                             Maria Letizia%Giancola%NULL%0,                             Angela%Corpolongo%NULL%0,                             Giuseppe%Ippolito%NULL%0,                             Maria Rosaria%Capobianchi%NULL%0,                             Concetta%Castilletti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qihong%Fan%NULL%1,                             Yan%Pan%woshipanyan@126.com%1,                             Qingcui%Wu%NULL%1,                             Shan%Liu%NULL%1,                             Xu%Song%NULL%1,                             Zhongguo%Xie%NULL%1,                             Yang%Liu%NULL%1,                             Liang%Zhao%NULL%1,                             Zhonghong%Wang%NULL%1,                             Yifei%Zhang%NULL%1,                             Zuchuang%Wu%NULL%1,                             Lei%Guan%NULL%1,                             Xiaolong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sasan%Faridi%NULL%1,                             Sadegh%Niazi%NULL%1,                             Kaveh%Sadeghi%NULL%1,                             Kazem%Naddafi%NULL%1,                             Jila%Yavarian%NULL%1,                             Mansour%Shamsipour%NULL%1,                             Nazanin Zahra Shafiei%Jandaghi%NULL%1,                             Khosro%Sadeghniiat%NULL%1,                             Ramin%Nabizadeh%NULL%1,                             Masud%Yunesian%NULL%1,                             Fatemeh%Momeniha%NULL%1,                             Adel%Mokamel%NULL%1,                             Mohammad Sadegh%Hassanvand%NULL%1,                             Talat%MokhtariAzad%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mi Seon%Han%NULL%1,                             Moon-Woo%Seong%NULL%1,                             Eun Young%Heo%NULL%1,                             Ji Hong%Park%NULL%1,                             Namhee%Kim%NULL%1,                             Sue%Shin%NULL%1,                             Sung Im%Cho%NULL%1,                             Sung Sup%Park%NULL%1,                             Eun Hwa%Choi%eunchoi@snu.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Heinzerling%NULL%1,                             Matthew J.%Stuckey%NULL%1,                             Tara%Scheuer%NULL%1,                             Kerui%Xu%NULL%1,                             Kiran M.%Perkins%NULL%1,                             Heather%Resseger%NULL%1,                             Shelley%Magill%NULL%1,                             Jennifer R.%Verani%NULL%1,                             Seema%Jain%NULL%1,                             Meileen%Acosta%NULL%1,                             Erin%Epson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%2,                             Xiuwen%Zhang%NULL%2,                             Xinyue%Zhang%NULL%2,                             Zhijian%Wei%NULL%2,                             Lingli%Zhang%NULL%2,                             Jingjing%Xu%NULL%2,                             Peipei%Liang%NULL%2,                             Yuanhong%Xu%xyhong1964@163.com%0,                             Chengyuan%Zhang%2396476405@qq.com%2,                             Aman%Xu%amanxu@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%0,                             Xiuwen%Zhang%NULL%0,                             Xinyue%Zhang%NULL%0,                             Zhijian%Wei%NULL%0,                             Lingli%Zhang%NULL%0,                             Jingjing%Xu%NULL%0,                             Peipei%Liang%NULL%0,                             Yuanhong%Xu%xyhong1964@163.com%0,                             Chengyuan%Zhang%2396476405@qq.com%0,                             Aman%Xu%amanxu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%0,                             Juan%Xia%NULL%1,                             Yuxin%Chen%NULL%1,                             Chun%Shan%NULL%1,                             Chao%Wu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%0,                             Rachael%Overcash%NULL%0,                             Neggin%Mokhtari%NULL%0,                             Haleema%Saeed%NULL%0,                             Stacey%Gold%NULL%0,                             Tamika%Auguste%NULL%0,                             Muhammad-Usman%Mirza%NULL%0,                             Maria-Elena%Ruiz%NULL%0,                             Joeffrey J.%Chahine%NULL%0,                             Joeffrey J.%Chahine%NULL%0,                             Masashi%Waga%NULL%0,                             Masashi%Waga%NULL%0,                             Glenn%Wortmann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xuejun%Jiang%NULL%1,                             Mei%Luo%NULL%1,                             Zhen%Zou%NULL%1,                             Xu%Wang%875777340@qq.com%1,                             Chengzhi%Chen%chengzhichen@cqmu.edu.cn%1,                             Jingfu%Qiu%jfqiu@126.com%2,                             Jingfu%Qiu%jfqiu@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Lin%Jiang%NULL%1,                             Xiao-Li%Zhang%NULL%1,                             Xiang-Na%Zhao%NULL%1,                             Cun-Bao%Li%NULL%1,                             Jie%Lei%NULL%2,                             Zeng-Qiang%Kou%NULL%1,                             Wen-Kui%Sun%NULL%1,                             Yang%Hang%NULL%1,                             Feng%Gao%NULL%1,                             Sheng-Xiang%Ji%NULL%1,                             Can-Fang%Lin%NULL%1,                             Bo%Pang%NULL%1,                             Ming-Xiao%Yao%NULL%1,                             Benjamin D%Anderson%NULL%1,                             Guo-Lin%Wang%NULL%1,                             Lin%Yao%NULL%1,                             Li-Jun%Duan%NULL%1,                             Dian-Ming%Kang%dmkang66@163.com%1,                             Mai-Juan%Ma%mjma@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hai T%Le%NULL%1,                             Lam V%Nguyen%NULL%1,                             Dien M%Tran%NULL%1,                             Hai T%Do%NULL%1,                             Huong T%Tran%NULL%1,                             Yen T%Le%NULL%1,                             Phuc H%Phan%phuc.h.phan@nhp.org.vn%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,                             Jihyang%Lee%NULL%0,                             Jihyang%Lee%NULL%0,                             Eunju%Kim%NULL%0,                             Eunju%Kim%NULL%0,                             Kyeongyoon%Woo%NULL%0,                             Kyeongyoon%Woo%NULL%0,                             Hak Youle%Park%NULL%0,                             Hak Youle%Park%NULL%0,                             Jihyun%An%NULL%0,                             Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chunyang%Li%NULL%1,                             Fang%Ji%NULL%1,                             Liang%Wang%NULL%1,                             Liping%Wang%NULL%1,                             Jungui%Hao%NULL%1,                             Mingjia%Dai%NULL%1,                             Yan%Liu%NULL%0,                             Xiucheng%Pan%NULL%1,                             Juanjuan%Fu%NULL%1,                             Li%Li%NULL%0,                             Guangde%Yang%NULL%1,                             Jianye%Yang%NULL%1,                             Xuebing%Yan%NULL%1,                             Bing%Gu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diangeng%Li%NULL%1,                             Meiling%Jin%NULL%1,                             Pengtao%Bao%NULL%1,                             Weiguo%Zhao%NULL%1,                             Shixi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                             Lefei%Han%NULL%2,                             Min%Peng%2658706528@qq.com%2,                             Yuxia%Lv%NULL%2,                             Yin%Ouyang%NULL%2,                             Kui%Liu%NULL%0,                             Linli%Yue%NULL%2,                             Qiannan%Li%NULL%2,                             Guoqiang%Sun%NULL%2,                             Lin%Chen%NULL%2,                             Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Li%NULL%1,                             Bo%Zhang%NULL%2,                             Jianhua%Lu%NULL%1,                             Shihua%Liu%NULL%1,                             Zhiqiang%Chang%NULL%1,                             Peng%Cao%NULL%1,                             Xinhua%Liu%NULL%1,                             Peng%Zhang%NULL%2,                             Yan%Ling%NULL%1,                             Kaixiong%Tao%NULL%1,                             Jianying%Chen%Bobytail@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%0,                             Yingying%Hu%NULL%2,                             Yingying%Hu%NULL%0,                             Yuanyuan%Yu%NULL%1,                             Xiaodong%Zhang%NULL%1,                             Bin%Li%NULL%1,                             Jianguo%Wu%NULL%1,                             Junyu%Li%NULL%1,                             Yingping%Wu%NULL%1,                             Xiaoping%Xia%NULL%2,                             Xiaoping%Xia%NULL%0,                             Huina%Tang%NULL%1,                             Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                             Jing%Wang%NULL%3,                             Wenbin%Li%NULL%1,                             Zhaoxian%Zhou%NULL%1,                             Siying%Liu%NULL%1,                             Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,                              Tania%Paredes%NULL%0,                              Tania%Paredes%NULL%0,                              David%Caceres%NULL%0,                              Camille M.%Webb%NULL%0,                              Luis M.%Valdez%NULL%0,                              Mauricio%La Rosa%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rachel M.%Burke%NULL%1,                              Claire M.%Midgley%NULL%1,                              Alissa%Dratch%NULL%1,                              Marty%Fenstersheib%NULL%1,                              Thomas%Haupt%NULL%1,                              Michelle%Holshue%NULL%1,                              Isaac%Ghinai%NULL%1,                              M. Claire%Jarashow%NULL%1,                              Jennifer%Lo%NULL%1,                              Tristan D.%McPherson%NULL%1,                              Sara%Rudman%NULL%1,                              Sarah%Scott%NULL%1,                              Aron J.%Hall%NULL%1,                              Alicia M.%Fry%NULL%1,                              Melissa A.%Rolfes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Cai%NULL%1,                              Wenjie%Sun%NULL%1,                              Jianping%Huang%NULL%1,                              Michelle%Gamber%NULL%1,                              Jing%Wu%NULL%2,                              Guiqing%He%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,                              Shuofeng%Yuan%NULL%1,                              Kin-Hang%Kok%NULL%1,                              Kelvin Kai-Wang%To%NULL%1,                              Hin%Chu%NULL%1,                              Jin%Yang%NULL%1,                              Fanfan%Xing%NULL%1,                              Jieling%Liu%NULL%1,                              Cyril Chik-Yan%Yip%NULL%2,                              Rosana Wing-Shan%Poon%NULL%2,                              Hoi-Wah%Tsoi%NULL%1,                              Simon Kam-Fai%Lo%NULL%1,                              Kwok-Hung%Chan%NULL%2,                              Vincent Kwok-Man%Poon%NULL%1,                              Wan-Mui%Chan%NULL%2,                              Jonathan Daniel%Ip%NULL%2,                              Jian-Piao%Cai%NULL%2,                              Vincent Chi-Chung%Cheng%NULL%2,                              Honglin%Chen%NULL%2,                              Christopher Kim-Ming%Hui%NULL%1,                              Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,                              Juanjuan%Guo%NULL%0,                              Chen%Wang%NULL%0,                              Fan%Luo%NULL%1,                              Xuechen%Yu%NULL%0,                              Wei%Zhang%NULL%0,                              Jiafu%Li%NULL%0,                              Dongchi%Zhao%NULL%1,                              Dan%Xu%NULL%3,                              Qing%Gong%NULL%1,                              Jing%Liao%NULL%1,                              Huixia%Yang%yanghuixia@bjmu.edu.cn%0,                              Wei%Hou%houwei@whu.edu.cn%0,                              Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%2,                              Hua%Peng%NULL%1,                              Lin%Wang%NULL%3,                              Yin%Zhao%NULL%1,                              Lingkong%Zeng%NULL%1,                              Hui%Gao%NULL%1,                              Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao-Yuan%Cheng%NULL%1,                              Shu-Wan%Jian%NULL%1,                              Ding-Ping%Liu%NULL%1,                              Ta-Chou%Ng%NULL%1,                              Wan-Ting%Huang%NULL%1,                              Hsien-Ho%Lin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vincent C. C.%Cheng%NULL%1,                              Shuk-Ching%Wong%NULL%1,                              Jonathan H. K.%Chen%NULL%1,                              Cyril C. Y.%Yip%NULL%1,                              Vivien W. M.%Chuang%NULL%1,                              Owen T. Y.%Tsang%NULL%1,                              Siddharth%Sridhar%NULL%1,                              Jasper F. W.%Chan%NULL%1,                              Pak-Leung%Ho%NULL%1,                              Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po Ying%Chia%NULL%1,                              Kristen Kelli%Coleman%NULL%2,                              Kristen Kelli%Coleman%NULL%0,                              Yian Kim%Tan%NULL%2,                              Yian Kim%Tan%NULL%0,                              Sean Wei Xiang%Ong%NULL%1,                              Marcus%Gum%NULL%2,                              Marcus%Gum%NULL%0,                              Sok Kiang%Lau%NULL%1,                              Xiao Fang%Lim%NULL%1,                              Ai Sim%Lim%NULL%1,                              Stephanie%Sutjipto%NULL%1,                              Pei Hua%Lee%NULL%1,                              Than The%Son%NULL%1,                              Barnaby Edward%Young%NULL%1,                              Donald K.%Milton%NULL%1,                              Gregory C.%Gray%NULL%2,                              Gregory C.%Gray%NULL%0,                              Stephan%Schuster%NULL%2,                              Stephan%Schuster%NULL%0,                              Timothy%Barkham%NULL%1,                              Partha Pratim%De%NULL%2,                              Partha Pratim%De%NULL%0,                              Shawn%Vasoo%NULL%1,                              Monica%Chan%NULL%1,                              Brenda Sze Peng%Ang%NULL%1,                              Boon Huan%Tan%NULL%1,                              Yee-Sin%Leo%NULL%1,                              Oon-Tek%Ng%Oon_Tek_Ng@ncid.sg%1,                              Michelle Su Yen%Wong%NULL%2,                              Michelle Su Yen%Wong%NULL%0,                              Kalisvar%Marimuthu%kalisvar_marimuthu@ncid.sg%1,                              David Chien%Lye%NULL%2,                              David Chien%Lye%NULL%0,                              Poh Lian%Lim%NULL%1,                              Cheng Chuan%Lee%NULL%1,                              Li Min%Ling%NULL%1,                              Lawrence%Lee%NULL%1,                              Tau Hong%Lee%NULL%1,                              Chen Seong%Wong%NULL%1,                              Sapna%Sadarangani%NULL%1,                              Ray Junhao%Lin%NULL%1,                              Deborah Hee Ling%Ng%NULL%1,                              Mucheli%Sadasiv%NULL%1,                              Tsin Wen%Yeo%NULL%1,                              Chiaw Yee%Choy%NULL%1,                              Glorijoy Shi En%Tan%NULL%1,                              Frederico%Dimatatac%NULL%1,                              Isais Florante%Santos%NULL%1,                              Chi Jong%Go%NULL%1,                              Yu Kit%Chan%NULL%1,                              Jun Yang%Tay%NULL%1,                              Jackie Yu-Ling%Tan%NULL%1,                              Nihar%Pandit%NULL%1,                              Benjamin Choon Heng%Ho%NULL%1,                              Shehara%Mendis%NULL%1,                              Yuan Yi Constance%Chen%NULL%1,                              Mohammad Yazid%Abdad%NULL%1,                              Daniela%Moses%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alex W H%Chin%NULL%1,                              Julie T S%Chu%NULL%1,                              Mahen R A%Perera%NULL%1,                              Kenrie P Y%Hui%NULL%1,                              Hui-Ling%Yen%NULL%1,                              Michael C W%Chan%NULL%1,                              Malik%Peiris%NULL%1,                              Leo L M%Poon%llmpoon@hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%2,                              Daniele%Lapa%NULL%2,                              Fabrizio%Carletti%NULL%2,                              Eleonora%Lalle%NULL%2,                              Licia%Bordi%NULL%2,                              Patrizia%Marsella%NULL%2,                              Emanuele%Nicastri%NULL%2,                              Nazario%Bevilacqua%NULL%2,                              Maria Letizia%Giancola%NULL%2,                              Angela%Corpolongo%NULL%2,                              Giuseppe%Ippolito%NULL%2,                              Maria Rosaria%Capobianchi%NULL%2,                              Concetta%Castilletti%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%0,                              Daniele%Lapa%NULL%0,                              Fabrizio%Carletti%NULL%0,                              Eleonora%Lalle%NULL%0,                              Licia%Bordi%NULL%0,                              Patrizia%Marsella%NULL%0,                              Emanuele%Nicastri%NULL%0,                              Nazario%Bevilacqua%NULL%0,                              Maria Letizia%Giancola%NULL%0,                              Angela%Corpolongo%NULL%0,                              Giuseppe%Ippolito%NULL%0,                              Maria Rosaria%Capobianchi%NULL%0,                              Concetta%Castilletti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qihong%Fan%NULL%1,                              Yan%Pan%woshipanyan@126.com%1,                              Qingcui%Wu%NULL%1,                              Shan%Liu%NULL%1,                              Xu%Song%NULL%1,                              Zhongguo%Xie%NULL%1,                              Yang%Liu%NULL%1,                              Liang%Zhao%NULL%1,                              Zhonghong%Wang%NULL%1,                              Yifei%Zhang%NULL%1,                              Zuchuang%Wu%NULL%1,                              Lei%Guan%NULL%1,                              Xiaolong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sasan%Faridi%NULL%1,                              Sadegh%Niazi%NULL%1,                              Kaveh%Sadeghi%NULL%1,                              Kazem%Naddafi%NULL%1,                              Jila%Yavarian%NULL%1,                              Mansour%Shamsipour%NULL%1,                              Nazanin Zahra Shafiei%Jandaghi%NULL%1,                              Khosro%Sadeghniiat%NULL%1,                              Ramin%Nabizadeh%NULL%1,                              Masud%Yunesian%NULL%1,                              Fatemeh%Momeniha%NULL%1,                              Adel%Mokamel%NULL%1,                              Mohammad Sadegh%Hassanvand%NULL%1,                              Talat%MokhtariAzad%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mi Seon%Han%NULL%1,                              Moon-Woo%Seong%NULL%1,                              Eun Young%Heo%NULL%1,                              Ji Hong%Park%NULL%1,                              Namhee%Kim%NULL%1,                              Sue%Shin%NULL%1,                              Sung Im%Cho%NULL%1,                              Sung Sup%Park%NULL%1,                              Eun Hwa%Choi%eunchoi@snu.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Heinzerling%NULL%1,                              Matthew J.%Stuckey%NULL%1,                              Tara%Scheuer%NULL%1,                              Kerui%Xu%NULL%1,                              Kiran M.%Perkins%NULL%1,                              Heather%Resseger%NULL%1,                              Shelley%Magill%NULL%1,                              Jennifer R.%Verani%NULL%1,                              Seema%Jain%NULL%1,                              Meileen%Acosta%NULL%1,                              Erin%Epson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%2,                              Xiuwen%Zhang%NULL%2,                              Xinyue%Zhang%NULL%2,                              Zhijian%Wei%NULL%2,                              Lingli%Zhang%NULL%2,                              Jingjing%Xu%NULL%2,                              Peipei%Liang%NULL%2,                              Yuanhong%Xu%xyhong1964@163.com%0,                              Chengyuan%Zhang%2396476405@qq.com%2,                              Aman%Xu%amanxu@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%0,                              Xiuwen%Zhang%NULL%0,                              Xinyue%Zhang%NULL%0,                              Zhijian%Wei%NULL%0,                              Lingli%Zhang%NULL%0,                              Jingjing%Xu%NULL%0,                              Peipei%Liang%NULL%0,                              Yuanhong%Xu%xyhong1964@163.com%0,                              Chengyuan%Zhang%2396476405@qq.com%0,                              Aman%Xu%amanxu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%0,                              Juan%Xia%NULL%1,                              Yuxin%Chen%NULL%1,                              Chun%Shan%NULL%1,                              Chao%Wu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%0,                              Rachael%Overcash%NULL%0,                              Neggin%Mokhtari%NULL%0,                              Haleema%Saeed%NULL%0,                              Stacey%Gold%NULL%0,                              Tamika%Auguste%NULL%0,                              Muhammad-Usman%Mirza%NULL%0,                              Maria-Elena%Ruiz%NULL%0,                              Joeffrey J.%Chahine%NULL%0,                              Joeffrey J.%Chahine%NULL%0,                              Masashi%Waga%NULL%0,                              Masashi%Waga%NULL%0,                              Glenn%Wortmann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xuejun%Jiang%NULL%1,                              Mei%Luo%NULL%1,                              Zhen%Zou%NULL%1,                              Xu%Wang%875777340@qq.com%1,                              Chengzhi%Chen%chengzhichen@cqmu.edu.cn%1,                              Jingfu%Qiu%jfqiu@126.com%2,                              Jingfu%Qiu%jfqiu@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Lin%Jiang%NULL%1,                              Xiao-Li%Zhang%NULL%1,                              Xiang-Na%Zhao%NULL%1,                              Cun-Bao%Li%NULL%1,                              Jie%Lei%NULL%2,                              Zeng-Qiang%Kou%NULL%1,                              Wen-Kui%Sun%NULL%1,                              Yang%Hang%NULL%1,                              Feng%Gao%NULL%1,                              Sheng-Xiang%Ji%NULL%1,                              Can-Fang%Lin%NULL%1,                              Bo%Pang%NULL%1,                              Ming-Xiao%Yao%NULL%1,                              Benjamin D%Anderson%NULL%1,                              Guo-Lin%Wang%NULL%1,                              Lin%Yao%NULL%1,                              Li-Jun%Duan%NULL%1,                              Dian-Ming%Kang%dmkang66@163.com%1,                              Mai-Juan%Ma%mjma@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hai T%Le%NULL%1,                              Lam V%Nguyen%NULL%1,                              Dien M%Tran%NULL%1,                              Hai T%Do%NULL%1,                              Huong T%Tran%NULL%1,                              Yen T%Le%NULL%1,                              Phuc H%Phan%phuc.h.phan@nhp.org.vn%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,                              Jihyang%Lee%NULL%0,                              Jihyang%Lee%NULL%0,                              Eunju%Kim%NULL%0,                              Eunju%Kim%NULL%0,                              Kyeongyoon%Woo%NULL%0,                              Kyeongyoon%Woo%NULL%0,                              Hak Youle%Park%NULL%0,                              Hak Youle%Park%NULL%0,                              Jihyun%An%NULL%0,                              Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chunyang%Li%NULL%1,                              Fang%Ji%NULL%1,                              Liang%Wang%NULL%1,                              Liping%Wang%NULL%1,                              Jungui%Hao%NULL%1,                              Mingjia%Dai%NULL%1,                              Yan%Liu%NULL%0,                              Xiucheng%Pan%NULL%1,                              Juanjuan%Fu%NULL%1,                              Li%Li%NULL%0,                              Guangde%Yang%NULL%1,                              Jianye%Yang%NULL%1,                              Xuebing%Yan%NULL%1,                              Bing%Gu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diangeng%Li%NULL%1,                              Meiling%Jin%NULL%1,                              Pengtao%Bao%NULL%1,                              Weiguo%Zhao%NULL%1,                              Shixi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                              Lefei%Han%NULL%2,                              Min%Peng%2658706528@qq.com%2,                              Yuxia%Lv%NULL%2,                              Yin%Ouyang%NULL%2,                              Kui%Liu%NULL%0,                              Linli%Yue%NULL%2,                              Qiannan%Li%NULL%2,                              Guoqiang%Sun%NULL%2,                              Lin%Chen%NULL%2,                              Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Li%NULL%1,                              Bo%Zhang%NULL%2,                              Jianhua%Lu%NULL%1,                              Shihua%Liu%NULL%1,                              Zhiqiang%Chang%NULL%1,                              Peng%Cao%NULL%1,                              Xinhua%Liu%NULL%1,                              Peng%Zhang%NULL%2,                              Yan%Ling%NULL%1,                              Kaixiong%Tao%NULL%1,                              Jianying%Chen%Bobytail@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%0,                              Yingying%Hu%NULL%2,                              Yingying%Hu%NULL%0,                              Yuanyuan%Yu%NULL%1,                              Xiaodong%Zhang%NULL%1,                              Bin%Li%NULL%1,                              Jianguo%Wu%NULL%1,                              Junyu%Li%NULL%1,                              Yingping%Wu%NULL%1,                              Xiaoping%Xia%NULL%2,                              Xiaoping%Xia%NULL%0,                              Huina%Tang%NULL%1,                              Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                              Jing%Wang%NULL%3,                              Wenbin%Li%NULL%1,                              Zhaoxian%Zhou%NULL%1,                              Siying%Liu%NULL%1,                              Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are few cases of pregnant women with novel corona virus 2019 (COVID-19) in the literature, most of them with a mild illness course.
+ There is limited evidence about in utero infection and early positive neonatal testing.
+ A 41-year-old G3P2 with a history of previous cesarean deliveries and diabetes mellitus presented with a 4-day history of malaise, low-grade fever, and progressive shortness of breath.
+ A nasopharyngeal swab was positive for COVID-19, COVID-19 serology was negative.
+ The patient developed respiratory failure requiring mechanical ventilation on day 5 of disease onset.
+ The patient underwent a cesarean delivery, and neonatal isolation was implemented immediately after birth, without delayed cord clamping or skin-to-skin contact.
+ The neonatal nasopharyngeal swab, 16 hours after delivery, was positive for severe acute respiratory syndrome–coronavirus 2 (SARS-CoV-2) real-time polymerase chain reaction (RT-PCR), and immunoglobulin (Ig)-M and IgG for SARS-CoV-2 were negative.
+ Maternal IgM and IgG were positive on postpartum day 4 (day 9 after symptom onset).
+ We report a severe presentation of COVID-19 during pregnancy.
+ To our knowledge, this is the earliest reported positive PCR in the neonate, raising the concern for vertical transmission.
+ We suggest pregnant women should be considered as a high-risk group and minimize exposures for these reasons.
+</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0, Tania%Paredes%NULL%0, Tania%Paredes%NULL%0, David%Caceres%NULL%0, Camille M.%Webb%NULL%0, Luis M.%Valdez%NULL%0, Mauricio%La Rosa%NULL%0]</t>
+  </si>
+  <si>
+    <t>Thieme Medical Publishers</t>
+  </si>
+  <si>
+    <t>[Rachel M.%Burke%NULL%0, Claire M.%Midgley%NULL%1, Alissa%Dratch%NULL%1, Marty%Fenstersheib%NULL%1, Thomas%Haupt%NULL%1, Michelle%Holshue%NULL%1, Isaac%Ghinai%NULL%0, M. Claire%Jarashow%NULL%1, Jennifer%Lo%NULL%1, Tristan D.%McPherson%NULL%1, Sara%Rudman%NULL%1, Sarah%Scott%NULL%1, Aron J.%Hall%NULL%1, Alicia M.%Fry%NULL%1, Melissa A.%Rolfes%NULL%1]</t>
+  </si>
+  <si>
+    <t>Centers for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To determine possible modes of virus transmission, we investigated a cluster of coronavirus disease cases associated with a shopping mall in Wenzhou, China.
+ Data indicated that indirect transmission of the causative virus occurred, perhaps resulting from virus contamination of common objects, virus aerosolization in a confined space, or spread from asymptomatic infected persons.
+</t>
+  </si>
+  <si>
+    <t>[Jing%Cai%NULL%0, Wenjie%Sun%NULL%1, Jianping%Huang%NULL%1, Michelle%Gamber%NULL%1, Jing%Wu%NULL%2, Guiqing%He%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0, Shuofeng%Yuan%NULL%0, Kin-Hang%Kok%NULL%0, Kelvin Kai-Wang%To%NULL%0, Hin%Chu%NULL%0, Jin%Yang%NULL%0, Fanfan%Xing%NULL%0, Jieling%Liu%NULL%0, Cyril Chik-Yan%Yip%NULL%0, Rosana Wing-Shan%Poon%NULL%0, Hoi-Wah%Tsoi%NULL%0, Simon Kam-Fai%Lo%NULL%0, Kwok-Hung%Chan%NULL%0, Vincent Kwok-Man%Poon%NULL%0, Wan-Mui%Chan%NULL%0, Jonathan Daniel%Ip%NULL%0, Jian-Piao%Cai%NULL%0, Vincent Chi-Chung%Cheng%NULL%0, Honglin%Chen%NULL%0, Christopher Kim-Ming%Hui%NULL%0, Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0, Juanjuan%Guo%NULL%0, Chen%Wang%NULL%0, Fan%Luo%NULL%0, Xuechen%Yu%NULL%0, Wei%Zhang%NULL%0, Jiafu%Li%NULL%0, Dongchi%Zhao%NULL%0, Dan%Xu%NULL%0, Qing%Gong%NULL%0, Jing%Liao%NULL%0, Huixia%Yang%yanghuixia@bjmu.edu.cn%0, Wei%Hou%houwei@whu.edu.cn%0, Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A novel viral respiratory disease caused by severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2), is responsible for an epidemic of the coronavirus disease 2019 (COVID-19) in cases in China and worldwide.
+ Four full-term, singleton infants were born to pregnant women who tested positive for COVID-19 in the city of Wuhan, the capital of Hubei province, China, where the disease was first identified.
+ Of the three infants, for who consent to be diagnostically tested was provided, none tested positive for the virus.
+ None of the infants developed serious clinical symptoms such as fever, cough, diarrhea, or abnormal radiologic or hematologic evidence, and all four infants were alive at the time of hospital discharge.
+ Two infants had rashes of unknown etiology at birth, and one had facial ulcerations.
+ One infant had tachypnea and was supported by non-invasive mechanical ventilation for 3 days.
+ One had rashes at birth but was discharged without parental consent for a diagnostic test.
+ This case report describes the clinical course of four live born infants, born to pregnant women with the COVID-19 infection.
+</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%0, Hua%Peng%NULL%2, Lin%Wang%NULL%5, Yin%Zhao%NULL%2, Lingkong%Zeng%NULL%2, Hui%Gao%NULL%2, Yalan%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>Frontiers Media S.A.</t>
+  </si>
+  <si>
+    <t>[Hao-Yuan%Cheng%NULL%0, Shu-Wan%Jian%NULL%1, Ding-Ping%Liu%NULL%1, Ta-Chou%Ng%NULL%1, Wan-Ting%Huang%NULL%1, Hsien-Ho%Lin%NULL%1]</t>
+  </si>
+  <si>
+    <t>American Medical Association</t>
+  </si>
+  <si>
+    <t>[Vincent C. C.%Cheng%NULL%0, Shuk-Ching%Wong%NULL%2, Jonathan H. K.%Chen%NULL%1, Cyril C. Y.%Yip%NULL%1, Vivien W. M.%Chuang%NULL%1, Owen T. Y.%Tsang%NULL%1, Siddharth%Sridhar%NULL%2, Jasper F. W.%Chan%NULL%1, Pak-Leung%Ho%NULL%2, Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>Cambridge University Press</t>
+  </si>
+  <si>
+    <t>id="Par1"&gt;Understanding the particle size distribution in the air and patterns of environmental contamination of SARS-CoV-2 is essential for infection prevention policies.
+ Here we screen surface and air samples from hospital rooms of COVID-19 patients for SARS-CoV-2 RNA.
+ Environmental sampling is conducted in three airborne infection isolation rooms (AIIRs) in the ICU and 27 AIIRs in the general ward.
+ 245 surface samples are collected.
+ 56.7% of rooms have at least one environmental surface contaminated.
+ High touch surface contamination is shown in ten (66.7%) out of 15 patients in the first week of illness, and three (20%) beyond the first week of illness (p = 0.01, χ2 test).
+ Air sampling is performed in three of the 27 AIIRs in the general ward, and detects SARS-CoV-2 PCR-positive particles of sizes &amp;gt;4 µm and 1–4 µm in two rooms, despite these rooms having 12 air changes per hour.
+ This warrants further study of the airborne transmission potential of SARS-CoV-2.</t>
+  </si>
+  <si>
+    <t>[Po Ying%Chia%NULL%0, Kristen Kelli%Coleman%NULL%2, Kristen Kelli%Coleman%NULL%0, Yian Kim%Tan%NULL%2, Yian Kim%Tan%NULL%0, Sean Wei Xiang%Ong%NULL%1, Marcus%Gum%NULL%2, Marcus%Gum%NULL%0, Sok Kiang%Lau%NULL%1, Xiao Fang%Lim%NULL%1, Ai Sim%Lim%NULL%1, Stephanie%Sutjipto%NULL%1, Pei Hua%Lee%NULL%1, Than The%Son%NULL%1, Barnaby Edward%Young%NULL%0, Donald K.%Milton%NULL%1, Gregory C.%Gray%NULL%2, Gregory C.%Gray%NULL%0, Stephan%Schuster%NULL%2, Stephan%Schuster%NULL%0, Timothy%Barkham%NULL%1, Partha Pratim%De%NULL%2, Partha Pratim%De%NULL%0, Shawn%Vasoo%NULL%1, Monica%Chan%NULL%1, Brenda Sze Peng%Ang%NULL%1, Boon Huan%Tan%NULL%1, Yee-Sin%Leo%NULL%0, Oon-Tek%Ng%Oon_Tek_Ng@ncid.sg%1, Michelle Su Yen%Wong%NULL%2, Michelle Su Yen%Wong%NULL%0, Kalisvar%Marimuthu%kalisvar_marimuthu@ncid.sg%1, David Chien%Lye%NULL%3, David Chien%Lye%NULL%0, Poh Lian%Lim%NULL%1, Cheng Chuan%Lee%NULL%1, Li Min%Ling%NULL%1, Lawrence%Lee%NULL%1, Tau Hong%Lee%NULL%1, Chen Seong%Wong%NULL%1, Sapna%Sadarangani%NULL%1, Ray Junhao%Lin%NULL%1, Deborah Hee Ling%Ng%NULL%1, Mucheli%Sadasiv%NULL%1, Tsin Wen%Yeo%NULL%1, Chiaw Yee%Choy%NULL%1, Glorijoy Shi En%Tan%NULL%1, Frederico%Dimatatac%NULL%1, Isais Florante%Santos%NULL%1, Chi Jong%Go%NULL%1, Yu Kit%Chan%NULL%1, Jun Yang%Tay%NULL%1, Jackie Yu-Ling%Tan%NULL%1, Nihar%Pandit%NULL%1, Benjamin Choon Heng%Ho%NULL%1, Shehara%Mendis%NULL%1, Yuan Yi Constance%Chen%NULL%1, Mohammad Yazid%Abdad%NULL%1, Daniela%Moses%NULL%1]</t>
+  </si>
+  <si>
+    <t>Nature Publishing Group UK</t>
+  </si>
+  <si>
+    <t>[Alex W H%Chin%NULL%0, Julie T S%Chu%NULL%1, Mahen R A%Perera%NULL%1, Kenrie P Y%Hui%NULL%1, Hui-Ling%Yen%NULL%1, Michael C W%Chan%NULL%1, Malik%Peiris%NULL%0, Leo L M%Poon%llmpoon@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>The Author(s). Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%0, Daniele%Lapa%NULL%2, Fabrizio%Carletti%NULL%2, Eleonora%Lalle%NULL%2, Licia%Bordi%NULL%2, Patrizia%Marsella%NULL%2, Emanuele%Nicastri%NULL%0, Nazario%Bevilacqua%NULL%2, Maria Letizia%Giancola%NULL%2, Angela%Corpolongo%NULL%2, Giuseppe%Ippolito%NULL%2, Maria Rosaria%Capobianchi%NULL%2, Concetta%Castilletti%NULL%2]</t>
+  </si>
+  <si>
+    <t>American College of Physicians</t>
+  </si>
+  <si>
+    <t>[Qihong%Fan%NULL%0, Yan%Pan%woshipanyan@126.com%1, Qingcui%Wu%NULL%1, Shan%Liu%NULL%1, Xu%Song%NULL%1, Zhongguo%Xie%NULL%1, Yang%Liu%NULL%0, Liang%Zhao%NULL%1, Zhonghong%Wang%NULL%1, Yifei%Zhang%NULL%1, Zuchuang%Wu%NULL%1, Lei%Guan%NULL%1, Xiaolong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The coronavirus disease 2019 (COVID-19) emerged in Wuhan city, China, in late 2019 and has rapidly spread throughout the world.
+ The major route of transmission of SARS-CoV-2 is in contention, with the airborne route a likely transmission pathway for carrying the virus within indoor environments.
+ Until now, there has been no evidence for detection of airborne severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) and this may have implication for the potential spread of the COVID-19. We investigated the air of patient rooms with confirmed COVID-19 in the largest hospital in Iran, on March 17, 2020. To collect the SARS-CoV-2 particles, ten air samples were collected into the sterile standard midget impingers containing 20 mL DMEM with 100 μg/mL streptomycin, 100 U/mL penicillin and 1% antifoam reagent for 1 h.
+ Besides, indoor particle number concentrations, CO2, relative humidity and temperature were recorded throughout the sampling duration.
+ Viral RNA was extracted from samples taken from the impingers and Reverse-Transcription PCR (RT-PCR) was applied to confirm the positivity of collected samples based on the virus genome sequence.
+ Fortunately, in this study all air samples which were collected 2 to 5 m from the patients' beds with confirmed COVID-19 were negative.
+ Despite we indicated that all air samples were negative, however, we suggest further in vivo experiments should be conducted using actual patient cough, sneeze and breath aerosols in order to show the possibility of generation of the airborne size carrier aerosols and the viability fraction of the embedded virus in those carrier aerosols.
+</t>
+  </si>
+  <si>
+    <t>[Sasan%Faridi%NULL%0, Sadegh%Niazi%NULL%1, Kaveh%Sadeghi%NULL%1, Kazem%Naddafi%NULL%1, Jila%Yavarian%NULL%1, Mansour%Shamsipour%NULL%1, Nazanin Zahra Shafiei%Jandaghi%NULL%1, Khosro%Sadeghniiat%NULL%1, Ramin%Nabizadeh%NULL%1, Masud%Yunesian%NULL%1, Fatemeh%Momeniha%NULL%1, Adel%Mokamel%NULL%1, Mohammad Sadegh%Hassanvand%NULL%1, Talat%MokhtariAzad%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We report changes in viral load over time in a 27-day old neonate with COVID-19 who presented with fever, cough, and vomiting.
+ SARS-CoV-2 RNA was detected in the nasopharynx, oropharynx, stool, saliva, plasma, and urine.
+ The highest viral RNA copies in nasopharynx decreased over time while viral load in stool remained high.
+</t>
+  </si>
+  <si>
+    <t>[Mi Seon%Han%NULL%0, Moon-Woo%Seong%NULL%0, Eun Young%Heo%NULL%1, Ji Hong%Park%NULL%1, Namhee%Kim%NULL%1, Sue%Shin%NULL%1, Sung Im%Cho%NULL%1, Sung Sup%Park%NULL%1, Eun Hwa%Choi%eunchoi@snu.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[Amy%Heinzerling%NULL%0, Matthew J.%Stuckey%NULL%1, Tara%Scheuer%NULL%1, Kerui%Xu%NULL%1, Kiran M.%Perkins%NULL%1, Heather%Resseger%NULL%1, Shelley%Magill%NULL%1, Jennifer R.%Verani%NULL%1, Seema%Jain%NULL%1, Meileen%Acosta%NULL%1, Erin%Epson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%0, Xiuwen%Zhang%NULL%2, Xinyue%Zhang%NULL%2, Zhijian%Wei%NULL%2, Lingli%Zhang%NULL%2, Jingjing%Xu%NULL%2, Peipei%Liang%NULL%2, Yuanhong%Xu%xyhong1964@163.com%0, Chengyuan%Zhang%2396476405@qq.com%2, Aman%Xu%amanxu@163.com%2]</t>
+  </si>
+  <si>
+    <t>The British Infection Association. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%0, Juan%Xia%NULL%1, Yuxin%Chen%NULL%0, Chun%Shan%NULL%1, Chao%Wu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%0, Rachael%Overcash%NULL%0, Neggin%Mokhtari%NULL%0, Haleema%Saeed%NULL%0, Stacey%Gold%NULL%0, Tamika%Auguste%NULL%0, Muhammad-Usman%Mirza%NULL%0, Maria-Elena%Ruiz%NULL%0, Joeffrey J.%Chahine%NULL%0, Joeffrey J.%Chahine%NULL%0, Masashi%Waga%NULL%0, Masashi%Waga%NULL%0, Glenn%Wortmann%NULL%0]</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t>[Xuejun%Jiang%NULL%0, Mei%Luo%NULL%1, Zhen%Zou%NULL%1, Xu%Wang%875777340@qq.com%1, Chengzhi%Chen%chengzhichen@cqmu.edu.cn%1, Jingfu%Qiu%jfqiu@126.com%2, Jingfu%Qiu%jfqiu@126.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data concerning the transmission of SARS-CoV-2 in asymptomatic and paucisymptomatic patients are lacking.
+ We report a three-family cluster of infections involving asymptomatic and paucisymptomatic transmission.
+ Eight (53%) of 15 members from three families were confirmed with SARS-CoV-2 infection.
+ Of eight patients, three were asymptomatic and one was paucisymptomatic.
+ An asymptomatic mother transmitted the virus to her son, and a paucisymptomatic father transmitted the virus to his three-month-old daughter.
+ SARS-CoV-2 was detected in the environment of one household.
+ The complete genomes of SARS-CoV-2 from the patients were &amp;gt;99.9% identical and were clustered with other SARS-CoV-2 sequences reported from China and other countries.
+</t>
+  </si>
+  <si>
+    <t>[Xiao-Lin%Jiang%NULL%0, Xiao-Li%Zhang%NULL%1, Xiang-Na%Zhao%NULL%1, Cun-Bao%Li%NULL%1, Jie%Lei%NULL%0, Zeng-Qiang%Kou%NULL%1, Wen-Kui%Sun%NULL%1, Yang%Hang%NULL%1, Feng%Gao%NULL%0, Sheng-Xiang%Ji%NULL%1, Can-Fang%Lin%NULL%1, Bo%Pang%NULL%1, Ming-Xiao%Yao%NULL%1, Benjamin D%Anderson%NULL%1, Guo-Lin%Wang%NULL%1, Lin%Yao%NULL%1, Li-Jun%Duan%NULL%1, Dian-Ming%Kang%dmkang66@163.com%1, Mai-Juan%Ma%mjma@163.com%1]</t>
+  </si>
+  <si>
+    <t>Korea Centers for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>[Hai T%Le%NULL%0, Lam V%Nguyen%NULL%1, Dien M%Tran%NULL%1, Hai T%Do%NULL%1, Huong T%Tran%NULL%1, Yen T%Le%NULL%1, Phuc H%Phan%phuc.h.phan@nhp.org.vn%1]</t>
+  </si>
+  <si>
+    <t>Korean Society of Anesthesiologists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We report epidemiologic, laboratory, and clinical findings for 7 patients with 2019 novel coronavirus disease in a 2-family cluster.
+ Our study confirms asymptomatic and human-to-human transmission through close contacts in familial and hospital settings.
+ These findings might also serve as a practical reference for clinical diagnosis and medical treatment.
+</t>
+  </si>
+  <si>
+    <t>[Chunyang%Li%NULL%0, Fang%Ji%NULL%0, Liang%Wang%NULL%1, Liping%Wang%NULL%1, Jungui%Hao%NULL%1, Mingjia%Dai%NULL%1, Yan%Liu%NULL%0, Xiucheng%Pan%NULL%1, Juanjuan%Fu%NULL%1, Li%Li%NULL%0, Guangde%Yang%NULL%1, Jianye%Yang%NULL%1, Xuebing%Yan%NULL%0, Bing%Gu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diangeng%Li%NULL%0, Meiling%Jin%NULL%1, Pengtao%Bao%NULL%0, Weiguo%Zhao%NULL%1, Shixi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0, Lefei%Han%NULL%0, Min%Peng%2658706528@qq.com%0, Yuxia%Lv%NULL%0, Yin%Ouyang%NULL%0, Kui%Liu%NULL%0, Linli%Yue%NULL%0, Qiannan%Li%NULL%0, Guoqiang%Sun%NULL%0, Lin%Chen%NULL%0, Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Li%NULL%0, Bo%Zhang%NULL%0, Jianhua%Lu%NULL%1, Shihua%Liu%NULL%1, Zhiqiang%Chang%NULL%1, Peng%Cao%NULL%1, Xinhua%Liu%NULL%1, Peng%Zhang%NULL%0, Yan%Ling%NULL%1, Kaixiong%Tao%NULL%1, Jianying%Chen%Bobytail@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%0, Yingying%Hu%NULL%0, Yingying%Hu%NULL%0, Yuanyuan%Yu%NULL%0, Xiaodong%Zhang%NULL%0, Bin%Li%NULL%0, Jianguo%Wu%NULL%0, Junyu%Li%NULL%0, Yingping%Wu%NULL%0, Xiaoping%Xia%NULL%0, Xiaoping%Xia%NULL%0, Huina%Tang%NULL%0, Jian%Xu%xuj@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The aim of this study was to investigate the clinical characteristics of neonates born to SARS-CoV-2 infected mothers and increase the current knowledge on the perinatal consequences of COVID-19. Nineteen neonates were admitted to Tongji Hospital from January 31 to February 29, 2020. Their mothers were clinically diagnosed or laboratory-confirmed with COVID-19. We prospectively collected and analyzed data of mothers and infants.
+ There are 19 neonates included in the research.
+ Among them, 10 mothers were confirmed COVID-19 by positive SARS-CoV-2 RT-PCR in throat swab, and 9 mothers were clinically diagnosed with COVID-19. Delivery occurred in an isolation room and neonates were immediately separated from the mothers and isolated for at least 14 days.
+ No fetal distress was found.
+ Gestational age of the neonates was 38.6 ± 1.5 weeks, and average birth weight was 3293 ± 425 g.
+ SARS-CoV-2 RT-PCR in throat swab, urine, and feces of all neonates were negative.
+ SARS-CoV-2 RT-PCR in breast milk and amniotic fluid was negative too.
+ None of the neonates developed clinical, radiologic, hematologic, or biochemical evidence of COVID-19. No vertical transmission of SARS-CoV-2 and no perinatal complications in the third trimester were found in our study.
+ The delivery should occur in isolation and neonates should be separated from the infected mothers and care givers.
+</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0, Jing%Wang%NULL%0, Wenbin%Li%NULL%0, Zhaoxian%Zhou%NULL%0, Siying%Liu%NULL%0, Zhihui%Rong%rongzhihui53@163.com%0]</t>
+  </si>
+  <si>
+    <t>Higher Education Press</t>
   </si>
 </sst>
 </file>
@@ -4107,10 +4503,10 @@
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>1201</v>
       </c>
       <c r="E2" t="s">
-        <v>1106</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -4122,10 +4518,10 @@
         <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>823</v>
+        <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="3">
@@ -4142,7 +4538,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>1107</v>
+        <v>1204</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -4154,10 +4550,10 @@
         <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>823</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="4">
@@ -4171,10 +4567,10 @@
         <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>1206</v>
       </c>
       <c r="E4" t="s">
-        <v>1108</v>
+        <v>1207</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -4186,10 +4582,10 @@
         <v>60</v>
       </c>
       <c r="I4" t="s">
-        <v>823</v>
+        <v>57</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="5">
@@ -4206,7 +4602,7 @@
         <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>1109</v>
+        <v>1208</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -4218,10 +4614,10 @@
         <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>827</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="6">
@@ -4238,7 +4634,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>1110</v>
+        <v>1210</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
@@ -4250,10 +4646,10 @@
         <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>827</v>
+        <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="7">
@@ -4264,28 +4660,28 @@
         <v>43924.0</v>
       </c>
       <c r="C7" t="s">
-        <v>437</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>652</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>439</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>904</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
         <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>905</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
@@ -4299,10 +4695,10 @@
         <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>1211</v>
       </c>
       <c r="E8" t="s">
-        <v>1111</v>
+        <v>1212</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -4314,10 +4710,10 @@
         <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>823</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="9">
@@ -4334,7 +4730,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>1112</v>
+        <v>1214</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -4346,10 +4742,10 @@
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>823</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="10">
@@ -4366,7 +4762,7 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>1113</v>
+        <v>1216</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
@@ -4378,10 +4774,10 @@
         <v>87</v>
       </c>
       <c r="I10" t="s">
-        <v>823</v>
+        <v>57</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="11">
@@ -4395,10 +4791,10 @@
         <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>587</v>
+        <v>1218</v>
       </c>
       <c r="E11" t="s">
-        <v>1114</v>
+        <v>1219</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -4410,10 +4806,10 @@
         <v>92</v>
       </c>
       <c r="I11" t="s">
-        <v>835</v>
+        <v>57</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="12">
@@ -4430,7 +4826,7 @@
         <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>1115</v>
+        <v>1221</v>
       </c>
       <c r="F12" t="s">
         <v>95</v>
@@ -4442,10 +4838,10 @@
         <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>827</v>
+        <v>57</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="13">
@@ -4462,7 +4858,7 @@
         <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>1116</v>
+        <v>1223</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -4474,10 +4870,10 @@
         <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>823</v>
+        <v>57</v>
       </c>
       <c r="J13" t="s">
-        <v>57</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="14">
@@ -4494,7 +4890,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>1117</v>
+        <v>99</v>
       </c>
       <c r="F14" t="s">
         <v>98</v>
@@ -4506,10 +4902,10 @@
         <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>823</v>
+        <v>57</v>
       </c>
       <c r="J14" t="s">
-        <v>57</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="15">
@@ -4520,25 +4916,25 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>1118</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s">
-        <v>661</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>840</v>
+        <v>57</v>
       </c>
       <c r="J15" t="s">
         <v>57</v>
@@ -4552,28 +4948,28 @@
         <v>43963.0</v>
       </c>
       <c r="C16" t="s">
-        <v>449</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
         <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>662</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s">
-        <v>439</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s">
-        <v>914</v>
+        <v>60</v>
       </c>
       <c r="I16" t="s">
         <v>57</v>
       </c>
       <c r="J16" t="s">
-        <v>915</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
@@ -4584,25 +4980,25 @@
         <v>44075.0</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>557</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>1119</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>830</v>
+        <v>57</v>
       </c>
       <c r="J17" t="s">
         <v>57</v>
@@ -4622,7 +5018,7 @@
         <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>1120</v>
+        <v>1225</v>
       </c>
       <c r="F18" t="s">
         <v>113</v>
@@ -4634,10 +5030,10 @@
         <v>60</v>
       </c>
       <c r="I18" t="s">
-        <v>823</v>
+        <v>57</v>
       </c>
       <c r="J18" t="s">
-        <v>57</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="19">
@@ -4651,10 +5047,10 @@
         <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>1227</v>
       </c>
       <c r="E19" t="s">
-        <v>1121</v>
+        <v>1228</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -4666,10 +5062,10 @@
         <v>118</v>
       </c>
       <c r="I19" t="s">
-        <v>827</v>
+        <v>57</v>
       </c>
       <c r="J19" t="s">
-        <v>57</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="20">
@@ -4680,22 +5076,22 @@
         <v>44022.0</v>
       </c>
       <c r="C20" t="s">
-        <v>1084</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>1122</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>1123</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>1087</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s">
-        <v>1088</v>
+        <v>60</v>
       </c>
       <c r="I20" t="s">
         <v>57</v>
@@ -4715,10 +5111,10 @@
         <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>1230</v>
       </c>
       <c r="E21" t="s">
-        <v>1124</v>
+        <v>1231</v>
       </c>
       <c r="F21" t="s">
         <v>122</v>
@@ -4730,10 +5126,10 @@
         <v>60</v>
       </c>
       <c r="I21" t="s">
-        <v>823</v>
+        <v>57</v>
       </c>
       <c r="J21" t="s">
-        <v>57</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="22">
@@ -4750,7 +5146,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>1125</v>
+        <v>1233</v>
       </c>
       <c r="F22" t="s">
         <v>125</v>
@@ -4762,10 +5158,10 @@
         <v>60</v>
       </c>
       <c r="I22" t="s">
-        <v>823</v>
+        <v>57</v>
       </c>
       <c r="J22" t="s">
-        <v>57</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="23">
@@ -4782,7 +5178,7 @@
         <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>1126</v>
+        <v>1234</v>
       </c>
       <c r="F23" t="s">
         <v>129</v>
@@ -4794,10 +5190,10 @@
         <v>104</v>
       </c>
       <c r="I23" t="s">
-        <v>827</v>
+        <v>57</v>
       </c>
       <c r="J23" t="s">
-        <v>57</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="24">
@@ -4814,7 +5210,7 @@
         <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>1127</v>
+        <v>130</v>
       </c>
       <c r="F24" t="s">
         <v>129</v>
@@ -4826,10 +5222,10 @@
         <v>104</v>
       </c>
       <c r="I24" t="s">
-        <v>827</v>
+        <v>57</v>
       </c>
       <c r="J24" t="s">
-        <v>57</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="25">
@@ -4846,7 +5242,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>1128</v>
+        <v>1236</v>
       </c>
       <c r="F25" t="s">
         <v>133</v>
@@ -4858,10 +5254,10 @@
         <v>60</v>
       </c>
       <c r="I25" t="s">
-        <v>827</v>
+        <v>57</v>
       </c>
       <c r="J25" t="s">
-        <v>57</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="26">
@@ -4878,7 +5274,7 @@
         <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>1129</v>
+        <v>1237</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -4890,10 +5286,10 @@
         <v>60</v>
       </c>
       <c r="I26" t="s">
-        <v>823</v>
+        <v>57</v>
       </c>
       <c r="J26" t="s">
-        <v>57</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="27">
@@ -4910,7 +5306,7 @@
         <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>1130</v>
+        <v>1239</v>
       </c>
       <c r="F27" t="s">
         <v>139</v>
@@ -4922,10 +5318,10 @@
         <v>140</v>
       </c>
       <c r="I27" t="s">
-        <v>823</v>
+        <v>57</v>
       </c>
       <c r="J27" t="s">
-        <v>57</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="28">
@@ -4939,10 +5335,10 @@
         <v>141</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>1240</v>
       </c>
       <c r="E28" t="s">
-        <v>1131</v>
+        <v>1241</v>
       </c>
       <c r="F28" t="s">
         <v>144</v>
@@ -4954,10 +5350,10 @@
         <v>60</v>
       </c>
       <c r="I28" t="s">
-        <v>823</v>
+        <v>57</v>
       </c>
       <c r="J28" t="s">
-        <v>57</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="29">
@@ -4986,10 +5382,10 @@
         <v>149</v>
       </c>
       <c r="I29" t="s">
-        <v>823</v>
+        <v>57</v>
       </c>
       <c r="J29" t="s">
-        <v>57</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="30">
@@ -5006,7 +5402,7 @@
         <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>1132</v>
+        <v>1243</v>
       </c>
       <c r="F30" t="s">
         <v>152</v>
@@ -5018,10 +5414,10 @@
         <v>60</v>
       </c>
       <c r="I30" t="s">
-        <v>827</v>
+        <v>57</v>
       </c>
       <c r="J30" t="s">
-        <v>57</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="31">
@@ -5038,7 +5434,7 @@
         <v>154</v>
       </c>
       <c r="E31" t="s">
-        <v>1133</v>
+        <v>158</v>
       </c>
       <c r="F31" t="s">
         <v>156</v>
@@ -5050,10 +5446,10 @@
         <v>157</v>
       </c>
       <c r="I31" t="s">
-        <v>823</v>
+        <v>57</v>
       </c>
       <c r="J31" t="s">
-        <v>57</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="32">
@@ -5070,7 +5466,7 @@
         <v>154</v>
       </c>
       <c r="E32" t="s">
-        <v>1133</v>
+        <v>158</v>
       </c>
       <c r="F32" t="s">
         <v>156</v>
@@ -5082,10 +5478,10 @@
         <v>157</v>
       </c>
       <c r="I32" t="s">
-        <v>823</v>
+        <v>57</v>
       </c>
       <c r="J32" t="s">
-        <v>57</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="33">
@@ -5099,10 +5495,10 @@
         <v>159</v>
       </c>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>1245</v>
       </c>
       <c r="E33" t="s">
-        <v>1134</v>
+        <v>1246</v>
       </c>
       <c r="F33" t="s">
         <v>162</v>
@@ -5114,10 +5510,10 @@
         <v>60</v>
       </c>
       <c r="I33" t="s">
-        <v>823</v>
+        <v>57</v>
       </c>
       <c r="J33" t="s">
-        <v>57</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="34">
@@ -5134,7 +5530,7 @@
         <v>164</v>
       </c>
       <c r="E34" t="s">
-        <v>1135</v>
+        <v>1247</v>
       </c>
       <c r="F34" t="s">
         <v>166</v>
@@ -5146,10 +5542,10 @@
         <v>167</v>
       </c>
       <c r="I34" t="s">
-        <v>823</v>
+        <v>57</v>
       </c>
       <c r="J34" t="s">
-        <v>57</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="35">
@@ -5166,7 +5562,7 @@
         <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>1136</v>
+        <v>1248</v>
       </c>
       <c r="F35" t="s">
         <v>171</v>
@@ -5178,10 +5574,10 @@
         <v>60</v>
       </c>
       <c r="I35" t="s">
-        <v>823</v>
+        <v>57</v>
       </c>
       <c r="J35" t="s">
-        <v>57</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="36">
@@ -5198,7 +5594,7 @@
         <v>173</v>
       </c>
       <c r="E36" t="s">
-        <v>1137</v>
+        <v>1249</v>
       </c>
       <c r="F36" t="s">
         <v>175</v>
@@ -5210,10 +5606,10 @@
         <v>60</v>
       </c>
       <c r="I36" t="s">
-        <v>823</v>
+        <v>57</v>
       </c>
       <c r="J36" t="s">
-        <v>57</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="37">
@@ -5230,7 +5626,7 @@
         <v>177</v>
       </c>
       <c r="E37" t="s">
-        <v>1138</v>
+        <v>1250</v>
       </c>
       <c r="F37" t="s">
         <v>179</v>
@@ -5242,10 +5638,10 @@
         <v>180</v>
       </c>
       <c r="I37" t="s">
-        <v>823</v>
+        <v>57</v>
       </c>
       <c r="J37" t="s">
-        <v>57</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="38">
@@ -5256,25 +5652,25 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>1139</v>
+        <v>46</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G38" t="s">
-        <v>661</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="I38" t="s">
-        <v>840</v>
+        <v>57</v>
       </c>
       <c r="J38" t="s">
         <v>57</v>
@@ -5291,10 +5687,10 @@
         <v>185</v>
       </c>
       <c r="D39" t="s">
-        <v>186</v>
+        <v>1251</v>
       </c>
       <c r="E39" t="s">
-        <v>1140</v>
+        <v>1252</v>
       </c>
       <c r="F39" t="s">
         <v>188</v>
@@ -5306,10 +5702,10 @@
         <v>189</v>
       </c>
       <c r="I39" t="s">
-        <v>835</v>
+        <v>57</v>
       </c>
       <c r="J39" t="s">
-        <v>57</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="40">
